--- a/MTG-AUT/data/LoginWithStaff.xlsx
+++ b/MTG-AUT/data/LoginWithStaff.xlsx
@@ -4,19 +4,38 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">8386836831 </t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>8386836831</t>
   </si>
   <si>
     <t>string</t>
@@ -25,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -639,8 +658,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -982,29 +1002,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.85" customWidth="1"/>
     <col min="2" max="2" width="31.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MTG-AUT/data/LoginWithStaff.xlsx
+++ b/MTG-AUT/data/LoginWithStaff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>8386836831</t>
+    <t>0123123123</t>
   </si>
   <si>
     <t>string</t>

--- a/MTG-AUT/data/LoginWithStaff.xlsx
+++ b/MTG-AUT/data/LoginWithStaff.xlsx
@@ -35,7 +35,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>0123123123</t>
+    <t>8386836831</t>
   </si>
   <si>
     <t>string</t>
